--- a/자료/metaplanner(메뉴구조도).xlsx
+++ b/자료/metaplanner(메뉴구조도).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\바탕 화면\2WDA_YJSangSa_CapstoneDesign\자료\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanghee\Desktop\develop\2wda_2semester\2WDA_YJSangSa_CapstoneDesign\자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4717A3D-D123-47EF-B206-40227E5E4120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73047F7-8A2E-4F43-8626-3151ECCDCD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5490" yWindow="3610" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t xml:space="preserve"> 메인</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -151,10 +151,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>플래너 페이지(리마인드 기능 포함된 플래너 기능)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>myplan.js</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -167,7 +163,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>리마인드 관련 설정 페이지</t>
+    <t>calendar.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캘린더페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 플래너 페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리마인드 관련 페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -478,7 +486,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -490,7 +497,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -771,31 +777,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.08203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.75" customWidth="1"/>
     <col min="5" max="6" width="43.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="21" t="s">
+    <row r="1" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="1:10" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
@@ -811,12 +817,12 @@
       <c r="F3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="18"/>
+      <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="5"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
@@ -830,23 +836,23 @@
       <c r="F4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="18"/>
+      <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="5"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B5" s="14"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="15"/>
-      <c r="G5" s="18"/>
+      <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="5"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B6" s="12" t="s">
         <v>16</v>
       </c>
@@ -860,12 +866,12 @@
       <c r="F6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="18"/>
+      <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="5"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B7" s="14"/>
       <c r="C7" s="6" t="s">
         <v>20</v>
@@ -877,12 +883,12 @@
       <c r="F7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="18"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="5"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B8" s="14"/>
       <c r="C8" s="6" t="s">
         <v>21</v>
@@ -894,12 +900,12 @@
       <c r="F8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="18"/>
+      <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="5"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
@@ -913,23 +919,23 @@
       <c r="F9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="18"/>
+      <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="5"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B10" s="14"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="15"/>
-      <c r="G10" s="18"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="5"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B11" s="12" t="s">
         <v>29</v>
       </c>
@@ -938,79 +944,82 @@
         <v>30</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="18"/>
+        <v>36</v>
+      </c>
+      <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="5"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="16"/>
-      <c r="C12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B12" s="12"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="18"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="5"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="18"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B13" s="16"/>
+      <c r="C13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="5"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>7</v>
-      </c>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="5"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>7</v>
+      </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="5"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1022,7 +1031,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1034,58 +1043,70 @@
       <c r="I17" s="5"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="24"/>
+      <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="24"/>
+      <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="24"/>
+      <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="24"/>
+      <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E23" s="24"/>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="E24" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/자료/metaplanner(메뉴구조도).xlsx
+++ b/자료/metaplanner(메뉴구조도).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanghee\Desktop\develop\2wda_2semester\2WDA_YJSangSa_CapstoneDesign\자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73047F7-8A2E-4F43-8626-3151ECCDCD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF1AB52-958E-41A0-9660-E3000B1F8657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5490" yWindow="3610" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -780,7 +780,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
